--- a/Daily_Status_Update.xlsx
+++ b/Daily_Status_Update.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -388,7 +388,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,6 +463,9 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Daily_Status_Update.xlsx
+++ b/Daily_Status_Update.xlsx
@@ -103,11 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +389,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,6 +459,9 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="4">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">

--- a/Daily_Status_Update.xlsx
+++ b/Daily_Status_Update.xlsx
@@ -107,8 +107,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -413,24 +413,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -459,7 +459,7 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.1</v>
       </c>
     </row>
@@ -467,8 +467,8 @@
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" s="3">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
